--- a/Part orders/Fourth order Rastaban-HAT MOUSER.xlsx
+++ b/Part orders/Fourth order Rastaban-HAT MOUSER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/jeroen_veen_han_nl/Documents/Research/Effluent/07 Studentprojects/Casper Tak/WaterQualityMonitor/Part orders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{9AC02C02-400D-4325-BBFB-7AACCCAF3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB046EA-353C-46D1-9C7B-76ED23EF865B}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{9AC02C02-400D-4325-BBFB-7AACCCAF3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E2F2D0-E09C-439F-808C-515488766AFE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +286,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -317,7 +323,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -326,9 +331,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,38 +341,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -602,6 +585,32 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -615,17 +624,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F3C630-071F-4B2B-8F3F-DDDFAA267EFC}" name="Tabel1" displayName="Tabel1" ref="A7:G21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B9F3C630-071F-4B2B-8F3F-DDDFAA267EFC}" name="Tabel1" displayName="Tabel1" ref="A7:G21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A7:G21" xr:uid="{E2E2526F-3351-49DA-AD25-24AF9707C253}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{97BF418A-33D3-4FEE-BF29-C08CC5A83A31}" name="Naam" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F1303678-2BFC-4792-9807-156BA9D8DA7C}" name="Artikel" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{03497DFA-AA70-4864-8FC5-C6AA9B847275}" name="Artikelnummer" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{261787F0-83FA-4C40-B9C8-34C40C454746}" name="Aantal" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7C03C8CA-03DE-4EA4-83A5-D57C81E120A4}" name="Leverancier" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{2EEF33E0-71C5-41A2-98E2-3F5C22A0B686}" name="Prijs/st _x000a_(excl BTW)" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{1BBCF21C-6FE3-448A-914C-747C18655BAA}" name="Totale kosten_x000a_(excl BTW)" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{97BF418A-33D3-4FEE-BF29-C08CC5A83A31}" name="Naam" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F1303678-2BFC-4792-9807-156BA9D8DA7C}" name="Artikel" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{03497DFA-AA70-4864-8FC5-C6AA9B847275}" name="Artikelnummer" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{261787F0-83FA-4C40-B9C8-34C40C454746}" name="Aantal" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7C03C8CA-03DE-4EA4-83A5-D57C81E120A4}" name="Leverancier" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2EEF33E0-71C5-41A2-98E2-3F5C22A0B686}" name="Prijs/st _x000a_(excl BTW)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{1BBCF21C-6FE3-448A-914C-747C18655BAA}" name="Totale kosten_x000a_(excl BTW)" dataDxfId="0">
       <calculatedColumnFormula>Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs/st 
 (excl BTW)]]</calculatedColumnFormula>
     </tableColumn>
@@ -958,7 +971,7 @@
   <dimension ref="A1:AGG21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,12 +988,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:865" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:865" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1004,25 +1017,25 @@
       </c>
     </row>
     <row r="7" spans="1:865" s="12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="9"/>
@@ -1888,10 +1901,10 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2">
@@ -2769,10 +2782,10 @@
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4">
@@ -3649,10 +3662,10 @@
     </row>
     <row r="10" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>1709457</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4">
@@ -4529,10 +4542,10 @@
     </row>
     <row r="11" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>1709460</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="4">
@@ -5409,10 +5422,10 @@
     </row>
     <row r="12" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>1808190</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="4">
@@ -6289,10 +6302,10 @@
     </row>
     <row r="13" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>1778780</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="4">
@@ -7169,10 +7182,10 @@
     </row>
     <row r="14" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4">
@@ -8047,18 +8060,14 @@
       <c r="AGE14" s="7"/>
       <c r="AGF14" s="7"/>
     </row>
-    <row r="15" spans="1:865" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:865" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="14">
-        <f>Tabel1[[#This Row],[Aantal]]*Tabel1[[#This Row],[Prijs/st 
-(excl BTW)]]</f>
-        <v>0</v>
-      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -13274,7 +13283,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
